--- a/measures/2 master measures/text/instructions.xlsx
+++ b/measures/2 master measures/text/instructions.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\LipLab\projects\RRR_fazio&amp;olson2001\replication_procedure\OSF\measures\text\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="80" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="14100" yWindow="75" windowWidth="26820" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Imagine that you are a security guard watching for deviant activity at a business. Your job requires that you pay attention at all times, and respond quickly when something suspicious happens.  
-In our lab we study attention and rapid responding, and in this experiment you'll be asked to play the role of the security guard. 
-Specifically, you will be attending to a number of items presented on the computer screen, and you'll be responding as quickly as  possible when a target item appears by pressing the spacebar.  
-Press the spacebar to continue</t>
-  </si>
-  <si>
     <t>The target item will appear at random several times throughout the experiment. The target item may appear as an image or as a name.  So be sure to pay attention at all times and focus on the screen, because you never know when the target item will appear.  
 A number of filler items that we've selected from our stimulus pool will also be shown randomly to make the task more challenging. These distractors are both pictures and words that were just randomly picked from our collection.  
 Sometimes two images will appear on the screen at the same time, and sometimes only one image will appear.  Be sure to hit the spacebar only when the target appears.  
@@ -80,11 +79,17 @@
 The study should take about 30 minutes. 
 If you have any questions please contact the experimenter. </t>
   </si>
+  <si>
+    <t>Imagine that you are a security guard watching for deviant activity at a business. Your job requires that you pay attention at all times, and respond quickly when something suspicious happens.  
+In our lab we study attention and rapid responding, and in this experiment you'll be asked to play the role of the security guard. 
+Specifically, you will be attending to a number of items presented on the computer screen, and you'll be responding as quickly as possible when a target item appears by pressing the spacebar.  
+Press the spacebar to continue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -943,7 +948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -953,73 +958,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="297" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="230.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="60">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="220" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="297" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="230" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="45">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="45">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="195">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="120">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="45">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
